--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-998708.9484407945</v>
+        <v>-948786.6901230874</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17424043.67672896</v>
+        <v>16759483.4356938</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9912596.560968785</v>
+        <v>9904677.021931799</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>365.2456300234189</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,10 +671,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>191.6672162614913</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>137.1809461482243</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>88.17436642327942</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,16 +905,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>212.9219355274819</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>87.93953851903038</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1054,22 +1054,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>9.658278520431971</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>93.49730178859201</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>52.45183955078455</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,7 +1142,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.7404152131615</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>4.381350355262807</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>114.9577730479998</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1433,10 +1433,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>15.05722734296575</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>176.4906962417482</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>59.41244209702454</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>24.6270352077661</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633418</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1768,19 +1768,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>111.2693566202699</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800047</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,10 +2059,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>275.2967631885898</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800578</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>35.3478058351354</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830822</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
@@ -3196,13 +3196,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
         <v>71.53763939432403</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
-        <v>227.1849416185816</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U34" t="n">
         <v>259.4129604006783</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,13 +3433,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277814</v>
       </c>
       <c r="I37" t="n">
         <v>71.53763939432403</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
-        <v>227.184941618582</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U37" t="n">
         <v>259.4129604006783</v>
@@ -3554,7 +3554,7 @@
         <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169449</v>
       </c>
       <c r="U38" t="n">
         <v>240.3943693174059</v>
@@ -3569,7 +3569,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245954</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,13 +3670,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277813</v>
       </c>
       <c r="I40" t="n">
         <v>71.53763939432403</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,13 +3907,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
         <v>71.53763939432403</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3983,13 +3983,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545403</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F44" t="n">
-        <v>407.3530449561369</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242213</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H44" t="n">
         <v>270.0031426724685</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925395</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174058</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267643</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W44" t="n">
         <v>384.5711897043296</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.537639394324</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742935338</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4192,13 +4192,13 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W46" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811742</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
         <v>208.9097636402854</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1032.922181297967</v>
+        <v>488.309395560084</v>
       </c>
       <c r="C2" t="n">
-        <v>998.8201125217938</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>570.2384382590621</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>540.5040974577614</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>516.6770719073733</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4331,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1074.529126782698</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.427067402413</v>
+        <v>914.6089660449918</v>
       </c>
       <c r="Y2" t="n">
-        <v>1055.18134774247</v>
+        <v>914.6089660449918</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4413,13 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>691.5370501768236</v>
+        <v>770.7035002010737</v>
       </c>
       <c r="C4" t="n">
-        <v>518.9753386600486</v>
+        <v>598.1417886842986</v>
       </c>
       <c r="D4" t="n">
-        <v>518.9753386600486</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="E4" t="n">
-        <v>349.2173349107858</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>172.510280872542</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>172.510280872542</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,22 +4489,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4516,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W4" t="n">
-        <v>1164.348475529303</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X4" t="n">
-        <v>918.9567208627154</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="Y4" t="n">
-        <v>691.5370501768236</v>
+        <v>770.7035002010737</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>1382.82158670728</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>944.6791138907038</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.8097331055524</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0753923042516</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2079627134593</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.8101313367232</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.8101313367232</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6480294167811</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.390636219588</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.271640678701</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.271640678701</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.271640678701</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.271640678701</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.014247481509</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.513033440103</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="V5" t="n">
-        <v>1398.458894115283</v>
+        <v>2307.050148126987</v>
       </c>
       <c r="W5" t="n">
-        <v>1397.64384356672</v>
+        <v>1902.19469353802</v>
       </c>
       <c r="X5" t="n">
-        <v>978.5013801460308</v>
+        <v>1813.366876852131</v>
       </c>
       <c r="Y5" t="n">
-        <v>570.2152564456842</v>
+        <v>1405.080753151784</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5650869551559</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1086257917983</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0183369383515</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.8979222653052</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5140838814668</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.12899414765073</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.4570151243208</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0153400905331</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.460325348332</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.633103442672</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.177665891055</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.999022221657</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.662475221625</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.544957283624</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2222030168184</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3547672556983</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8689880349191</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>300.9470990967592</v>
+        <v>741.0835044133446</v>
       </c>
       <c r="C7" t="n">
-        <v>128.3853875799841</v>
+        <v>731.3276675240194</v>
       </c>
       <c r="D7" t="n">
-        <v>128.3853875799841</v>
+        <v>565.4496747255421</v>
       </c>
       <c r="E7" t="n">
-        <v>128.3853875799841</v>
+        <v>395.6916709762793</v>
       </c>
       <c r="F7" t="n">
-        <v>128.3853875799841</v>
+        <v>218.9846169380355</v>
       </c>
       <c r="G7" t="n">
-        <v>128.3853875799841</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.973027128553</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7314816996886</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9413634676497</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.425230648563</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1734.684033806207</v>
       </c>
       <c r="O7" t="n">
-        <v>1653.213838276079</v>
+        <v>2154.353283031989</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.860177002331</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.249276898532</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.007908196529</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.128461774984</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1964.695461028089</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1677.73995289852</v>
       </c>
       <c r="W7" t="n">
-        <v>720.185388501638</v>
+        <v>1405.713548484811</v>
       </c>
       <c r="X7" t="n">
-        <v>720.185388501638</v>
+        <v>1160.321793818224</v>
       </c>
       <c r="Y7" t="n">
-        <v>492.7657178157463</v>
+        <v>932.9021231323318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>987.8928241336827</v>
+        <v>574.7486531912377</v>
       </c>
       <c r="C8" t="n">
-        <v>934.9111680217791</v>
+        <v>540.6465844150651</v>
       </c>
       <c r="D8" t="n">
-        <v>903.0417872366277</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>873.3074464353269</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>445.4400168445347</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>44.04218546779862</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>44.04218546779862</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>43.62539609493862</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.8800835478565</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>478.8800835478565</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>478.8800835478565</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1018.744360222722</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1018.744360222722</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1558.608636897587</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1558.608636897587</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2098.472913572453</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2181.269804746931</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2097.617930930768</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2097.617930930768</v>
+        <v>2451.131114094901</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.395628247785</v>
+        <v>2191.908811411918</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.395628247785</v>
+        <v>1829.291861345744</v>
       </c>
       <c r="W8" t="n">
-        <v>1433.540173658818</v>
+        <v>1424.436406756777</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.438114278533</v>
+        <v>1005.293943336088</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.19239461859</v>
+        <v>597.0078196357415</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.7971410862314</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.3406799228737</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.2503910694269</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.1299763963806</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7461380125422</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.36104827872614</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.62539609493862</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.68906925539622</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.2473942216085</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>934.1116708964739</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>934.1116708964739</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>934.1116708964739</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.828102804542</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.828102804542</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.828102804542</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.692379479408</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.865157573747</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.40972002213</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.231076352732</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.8945293527</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.7770114147</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.4542571478937</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.5868213867737</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.1010421659945</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>725.9853280745522</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="C10" t="n">
-        <v>721.5597216550948</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>555.6817288566175</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>385.9237251073548</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>209.216671069111</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>43.62539609493862</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>43.62539609493862</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>43.62539609493862</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>130.2050812596285</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>404.9635358307641</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>823.1734175987251</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1282.657284779638</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1724.916087937283</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2013.077029882599</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2013.077029882599</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2181.269804746931</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2159.851983452303</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2000.6106147503</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2000.6106147503</v>
+        <v>2373.282673760049</v>
       </c>
       <c r="U10" t="n">
-        <v>1722.177614003405</v>
+        <v>2094.849673013155</v>
       </c>
       <c r="V10" t="n">
-        <v>1435.222105873835</v>
+        <v>1807.894164883585</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.195701460127</v>
+        <v>1535.867760469877</v>
       </c>
       <c r="X10" t="n">
-        <v>917.8039467935394</v>
+        <v>1290.476005803289</v>
       </c>
       <c r="Y10" t="n">
-        <v>917.8039467935394</v>
+        <v>1063.056335117397</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2060.996862363162</v>
+        <v>2524.205911056827</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.854389546585</v>
+        <v>2086.06343824025</v>
       </c>
       <c r="D11" t="n">
-        <v>1186.944604721029</v>
+        <v>1650.153653414695</v>
       </c>
       <c r="E11" t="n">
-        <v>1186.944604721029</v>
+        <v>1216.37890857299</v>
       </c>
       <c r="F11" t="n">
-        <v>759.077175130237</v>
+        <v>788.5114789821977</v>
       </c>
       <c r="G11" t="n">
-        <v>357.6793437535009</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>68.54918919671719</v>
+        <v>97.98349304867784</v>
       </c>
       <c r="I11" t="n">
-        <v>68.1323998238572</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J11" t="n">
-        <v>68.1323998238572</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K11" t="n">
-        <v>902.4826917820352</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L11" t="n">
-        <v>902.4826917820352</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M11" t="n">
-        <v>902.4826917820352</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N11" t="n">
-        <v>1188.672882580636</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O11" t="n">
-        <v>2031.811330400869</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P11" t="n">
-        <v>2860.121205234265</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q11" t="n">
-        <v>3406.61999119286</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.61999119286</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S11" t="n">
-        <v>3322.968117376697</v>
+        <v>4794.683309974729</v>
       </c>
       <c r="T11" t="n">
-        <v>3102.900890249735</v>
+        <v>4574.616082847768</v>
       </c>
       <c r="U11" t="n">
-        <v>2843.678587566752</v>
+        <v>4315.393780164784</v>
       </c>
       <c r="V11" t="n">
-        <v>2481.061637500578</v>
+        <v>3952.776830098611</v>
       </c>
       <c r="W11" t="n">
-        <v>2076.206182911612</v>
+        <v>3547.921375509644</v>
       </c>
       <c r="X11" t="n">
-        <v>2060.996862363162</v>
+        <v>3128.778912088955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2060.996862363162</v>
+        <v>2950.505481541735</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.30414481515</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517923</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983456</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252993</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414609</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076447</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>68.1323998238572</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19607298431481</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J12" t="n">
-        <v>418.7543979505271</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K12" t="n">
-        <v>1099.487918020905</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L12" t="n">
-        <v>1614.199383208326</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M12" t="n">
-        <v>1614.199383208326</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N12" t="n">
-        <v>1614.199383208326</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O12" t="n">
-        <v>1614.199383208326</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P12" t="n">
-        <v>1614.199383208326</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768125</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156924</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949132</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1034.641416693737</v>
+        <v>807.0605410934295</v>
       </c>
       <c r="C13" t="n">
-        <v>974.6288489189636</v>
+        <v>634.4988295766544</v>
       </c>
       <c r="D13" t="n">
-        <v>808.7508561204863</v>
+        <v>634.4988295766544</v>
       </c>
       <c r="E13" t="n">
-        <v>638.9928523712235</v>
+        <v>464.7408258273917</v>
       </c>
       <c r="F13" t="n">
-        <v>462.2857983329797</v>
+        <v>288.0337717891479</v>
       </c>
       <c r="G13" t="n">
-        <v>296.6945233588074</v>
+        <v>122.4424968149755</v>
       </c>
       <c r="H13" t="n">
-        <v>156.7923490491819</v>
+        <v>122.4424968149755</v>
       </c>
       <c r="I13" t="n">
-        <v>68.1323998238572</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.7120849885471</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596827</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276437</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508557</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666201</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862325</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2663.374188432029</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="S13" t="n">
-        <v>2504.132819730026</v>
+        <v>2554.984944876614</v>
       </c>
       <c r="T13" t="n">
-        <v>2258.253373308481</v>
+        <v>2309.105498455069</v>
       </c>
       <c r="U13" t="n">
-        <v>2258.253373308481</v>
+        <v>2030.672497708174</v>
       </c>
       <c r="V13" t="n">
-        <v>1971.297865178911</v>
+        <v>1743.716989578604</v>
       </c>
       <c r="W13" t="n">
-        <v>1699.271460765203</v>
+        <v>1471.690585164896</v>
       </c>
       <c r="X13" t="n">
-        <v>1453.879706098616</v>
+        <v>1226.298830498308</v>
       </c>
       <c r="Y13" t="n">
-        <v>1226.460035412724</v>
+        <v>998.8791598124167</v>
       </c>
     </row>
     <row r="14">
@@ -5264,28 +5264,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423627</v>
@@ -5321,7 +5321,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3433.295911739686</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>3260.734200222911</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>3148.340910707486</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>2978.582906958223</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>2801.875852919979</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>2636.284577945807</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>4953.800644836977</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>4707.921198415433</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>4429.488197668538</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>4142.532689538969</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>3870.506285125261</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>3625.114530458673</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>3625.114530458673</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,22 +5522,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5552,13 +5552,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883918</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716167</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731394</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238766</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354734</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
         <v>614.3171730324584</v>
@@ -6233,10 +6233,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6835,16 +6835,16 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886289</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030278</v>
+        <v>760.8807595030279</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666412</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412736</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
         <v>298.0235489799775</v>
@@ -6880,7 +6880,7 @@
         <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6938,16 +6938,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
         <v>5113.04201353898</v>
@@ -7072,19 +7072,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.359044888629</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030279</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H37" t="n">
         <v>174.5210820832282</v>
@@ -7108,16 +7108,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
         <v>2699.647500885579</v>
@@ -7126,7 +7126,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
         <v>1937.578667826198</v>
@@ -7135,7 +7135,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7166,10 +7166,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7181,25 +7181,25 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428594</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428594</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998901</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832297</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790891</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
@@ -7211,7 +7211,7 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579744</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7388,25 +7388,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,25 +7415,25 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387605</v>
@@ -7445,7 +7445,7 @@
         <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W41" t="n">
         <v>3629.919912574025</v>
@@ -7454,7 +7454,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7625,19 +7625,19 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197254</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
         <v>97.56670367581783</v>
@@ -7652,16 +7652,16 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M44" t="n">
-        <v>3182.502666508934</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N44" t="n">
-        <v>3182.502666508934</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>4162.68233307924</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
         <v>4162.68233307924</v>
@@ -7679,19 +7679,19 @@
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7783,22 +7783,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463118</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581783</v>
@@ -7807,25 +7807,25 @@
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823632</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
         <v>2837.795025579744</v>
@@ -7834,7 +7834,7 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>33.39342414375216</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.4167745482899</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.3343479384985</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>44.41372909529082</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.5019405967978</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>545.3174511867328</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>545.3174511867328</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867328</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>83.63322340856394</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>545.3174511867328</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>116.8852847556245</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867328</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8623,10 +8623,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>291.0716585306222</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>289.0810008066674</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982149</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9881,13 +9881,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1133.488385918382</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,7 +10598,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497138</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M44" t="n">
-        <v>747.748502191072</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>68.51541806499205</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>286.6283893087777</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>136.9711075557534</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>399.8938114435167</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>227.7125662215949</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>63.14631452530531</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>52.94985625022262</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>8.789189859684029</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>143.6516710866751</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.174438572590589e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>870100.005015356</v>
+        <v>688247.9999645627</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>870100.005015356</v>
+        <v>875086.5869272827</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>872582.2434722823</v>
+        <v>875088.6058384229</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652273.4454580863</v>
+        <v>839923.7110515151</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869849.8809791838</v>
+        <v>869849.8809791839</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80422.09798356124</v>
+        <v>63373.47251004945</v>
       </c>
       <c r="C2" t="n">
         <v>80422.09798356127</v>
       </c>
       <c r="D2" t="n">
-        <v>80422.09798356127</v>
+        <v>80422.09798356122</v>
       </c>
       <c r="E2" t="n">
-        <v>59261.12410640516</v>
+        <v>76309.74957991698</v>
       </c>
       <c r="F2" t="n">
-        <v>79028.63762060281</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="G2" t="n">
         <v>79028.63762060282</v>
       </c>
       <c r="H2" t="n">
-        <v>79028.63762060282</v>
+        <v>79028.63762060284</v>
       </c>
       <c r="I2" t="n">
         <v>79028.63762060281</v>
@@ -26341,19 +26341,19 @@
         <v>79028.63762060281</v>
       </c>
       <c r="L2" t="n">
-        <v>80422.09798356134</v>
+        <v>80422.09798356135</v>
       </c>
       <c r="M2" t="n">
         <v>80422.09798356135</v>
       </c>
       <c r="N2" t="n">
-        <v>80422.09798356125</v>
+        <v>80422.09798356124</v>
       </c>
       <c r="O2" t="n">
-        <v>80422.09798356137</v>
+        <v>80422.09798356138</v>
       </c>
       <c r="P2" t="n">
-        <v>80422.09798356133</v>
+        <v>80422.09798356131</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78545.24144524506</v>
       </c>
       <c r="D3" t="n">
-        <v>37592.93764066479</v>
+        <v>30.5759506632495</v>
       </c>
       <c r="E3" t="n">
-        <v>91465.65199216314</v>
+        <v>164835.5352679185</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.5690936862</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62571.54417371011</v>
       </c>
       <c r="L3" t="n">
-        <v>43618.04443367856</v>
+        <v>13013.48053938573</v>
       </c>
       <c r="M3" t="n">
-        <v>76340.54196576781</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>90115.69674436445</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>116560.425767305</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130777.8086871445</v>
       </c>
       <c r="D4" t="n">
-        <v>156217.3708066409</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>20759.43197279099</v>
+        <v>26731.64033170578</v>
       </c>
       <c r="F4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020272</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020272</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26451,13 @@
         <v>33026.43656683595</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353615</v>
+        <v>42419.6766535361</v>
       </c>
       <c r="O4" t="n">
-        <v>42419.67665353613</v>
+        <v>42419.67665353612</v>
       </c>
       <c r="P4" t="n">
-        <v>42419.67665353616</v>
+        <v>42419.67665353612</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74206.53989253604</v>
       </c>
       <c r="D5" t="n">
-        <v>66782.90103215334</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613146</v>
+        <v>74150.69479362156</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,10 +26503,10 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
         <v>75515.6147260897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-302626.3772738331</v>
+        <v>-255087.1858120797</v>
       </c>
       <c r="C6" t="n">
-        <v>-160435.0766141232</v>
+        <v>-203107.4920413643</v>
       </c>
       <c r="D6" t="n">
-        <v>-180171.1114958977</v>
+        <v>-124578.3027608796</v>
       </c>
       <c r="E6" t="n">
-        <v>-104744.5837246804</v>
+        <v>-189476.6599533896</v>
       </c>
       <c r="F6" t="n">
-        <v>-148607.2488290785</v>
+        <v>-43209.30634987527</v>
       </c>
       <c r="G6" t="n">
-        <v>-26373.6797353924</v>
+        <v>-26396.90407477502</v>
       </c>
       <c r="H6" t="n">
-        <v>-26373.6797353924</v>
+        <v>-26396.904074775</v>
       </c>
       <c r="I6" t="n">
-        <v>-26373.67973539239</v>
+        <v>-26396.90407477503</v>
       </c>
       <c r="J6" t="n">
-        <v>-137388.1450803826</v>
+        <v>-137411.3694197652</v>
       </c>
       <c r="K6" t="n">
-        <v>-26373.67973539239</v>
+        <v>-88968.44824848513</v>
       </c>
       <c r="L6" t="n">
-        <v>-75305.54155521383</v>
+        <v>-44700.977660921</v>
       </c>
       <c r="M6" t="n">
-        <v>-108028.0390873031</v>
+        <v>-169265.1978593873</v>
       </c>
       <c r="N6" t="n">
-        <v>-127628.8901404291</v>
+        <v>-37513.19339606458</v>
       </c>
       <c r="O6" t="n">
         <v>-37513.19339606445</v>
       </c>
       <c r="P6" t="n">
-        <v>-37513.19339606453</v>
+        <v>-37513.19339606451</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="D4" t="n">
-        <v>545.3174511867328</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982149</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.1209170281858</v>
       </c>
       <c r="D4" t="n">
-        <v>121.0215936666284</v>
+        <v>0.09843205956684642</v>
       </c>
       <c r="E4" t="n">
-        <v>306.3375466114822</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="F4" t="n">
-        <v>426.6055055865302</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281858</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666284</v>
+        <v>0.09843205956684642</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114822</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>367.9287981495077</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281858</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666284</v>
+        <v>0.09843205956684642</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114822</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865302</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>205.7166368014774</v>
+        <v>110.755463754191</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>1.322206418304887</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,16 +27625,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,13 +27673,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>146.0688450380298</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>327.011500267452</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>161.1778158811753</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>45.00585077793721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>381.3092085376264</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,7 +27862,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>1.126139642530262</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>166.4547440463445</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>128.4628789093294</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874688</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874765</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874741</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,7 +34790,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>33.39342414375216</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.4167745482899</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.3343479384985</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,13 +35015,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>44.41372909529082</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.5019405967978</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>545.3174511867328</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>545.3174511867328</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867328</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>83.63322340856394</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>545.3174511867328</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>116.8852847556245</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867328</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35343,10 +35343,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>291.0716585306222</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>289.0810008066674</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982149</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,10 +35489,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,13 +35817,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908462</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36601,13 +36601,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1133.488385918382</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,10 +37315,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M37" t="n">
         <v>480.360828703306</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209006</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497138</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M44" t="n">
-        <v>747.748502191072</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
